--- a/Shraddha Hospital/Hospital Bills/All Bill 20-21(Sanjiv) .xlsx
+++ b/Shraddha Hospital/Hospital Bills/All Bill 20-21(Sanjiv) .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Kale20-21(Sanjiv)" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Ashapuri20-21(Sanjiv)" sheetId="5" r:id="rId5"/>
     <sheet name="Inpharm20-21(Sanjiv)" sheetId="6" r:id="rId6"/>
     <sheet name="Other20-21(Sanjiv)" sheetId="7" r:id="rId7"/>
+    <sheet name="Jagsonpal Pharma" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="34">
   <si>
     <t>DATE</t>
   </si>
@@ -98,6 +99,30 @@
   </si>
   <si>
     <t>S/3638</t>
+  </si>
+  <si>
+    <t>S/4148</t>
+  </si>
+  <si>
+    <t>Online(SB)</t>
+  </si>
+  <si>
+    <t>Sanjiv A/C</t>
+  </si>
+  <si>
+    <t>A/C HOLDER</t>
+  </si>
+  <si>
+    <t>Jagsonpal Pharma</t>
+  </si>
+  <si>
+    <t>DPN2021/GIS00707</t>
+  </si>
+  <si>
+    <t>A/C Sanjiv</t>
+  </si>
+  <si>
+    <t>Rate 44.11</t>
   </si>
 </sst>
 </file>
@@ -107,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +144,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -181,6 +214,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,6 +573,47 @@
       <c r="E2">
         <v>1964</v>
       </c>
+      <c r="F2">
+        <v>982</v>
+      </c>
+      <c r="G2" s="5">
+        <v>44012</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>43991</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1806</v>
+      </c>
+      <c r="E3">
+        <v>1887</v>
+      </c>
+      <c r="F3">
+        <v>1887</v>
+      </c>
+      <c r="G3" s="5">
+        <v>44013</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3">
+        <v>2552</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -544,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -628,6 +706,26 @@
         <v>1260</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>43981</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>352</v>
+      </c>
+      <c r="E4">
+        <v>3460</v>
+      </c>
+      <c r="F4">
+        <v>2580</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -635,10 +733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,9 +748,11 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:10" s="4" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,8 +780,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5">
         <v>43925</v>
       </c>
@@ -704,13 +807,16 @@
         <v>43988</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>651</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="5">
         <v>43948</v>
       </c>
@@ -733,13 +839,16 @@
         <v>43988</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>651</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
         <v>43988</v>
       </c>
@@ -757,6 +866,50 @@
       </c>
       <c r="F4">
         <v>204</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44005</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4">
+        <v>214</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>510</v>
+      </c>
+      <c r="F5">
+        <v>510</v>
+      </c>
+      <c r="G5" s="5">
+        <v>44005</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>214</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +1146,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,4 +1221,86 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="8">
+        <v>44005</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>5029</v>
+      </c>
+      <c r="F2">
+        <v>5029</v>
+      </c>
+      <c r="G2" s="8">
+        <v>44005</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>